--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F8" s="3">
         <v>7600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3400</v>
       </c>
       <c r="K8" s="3">
         <v>3700</v>
       </c>
       <c r="L8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1200</v>
-      </c>
       <c r="I9" s="3">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="J9" s="3">
         <v>1200</v>
       </c>
       <c r="K9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
         <v>800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,46 +963,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>700</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>1500</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>1500</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,32 +1027,38 @@
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F17" s="3">
         <v>12300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>22400</v>
       </c>
-      <c r="F17" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11100</v>
-      </c>
       <c r="H17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J17" s="3">
         <v>6500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-10200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-9300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,21 +1280,21 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1225,70 +1304,82 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4700</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2800</v>
+        <v>-5600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2900</v>
+        <v>-6100</v>
       </c>
       <c r="J23" s="3">
         <v>-2800</v>
       </c>
       <c r="K23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
-      </c>
       <c r="G24" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,13 +1568,19 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1468,31 +1589,37 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>69600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>7200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>1900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>2300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>1700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>4800</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J33" s="3">
         <v>69200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J35" s="3">
         <v>69200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,69 +1965,77 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>58800</v>
+      </c>
+      <c r="F41" s="3">
         <v>62300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>67400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>32400</v>
       </c>
-      <c r="G41" s="3">
-        <v>16500</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J41" s="3">
         <v>40700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>40900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>61700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>55500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -1870,160 +2049,190 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F43" s="3">
         <v>7700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4900</v>
       </c>
-      <c r="G43" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>4100</v>
       </c>
       <c r="M43" s="3">
         <v>4900</v>
       </c>
       <c r="N43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F44" s="3">
         <v>7200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J44" s="3">
         <v>6000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>7500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1200</v>
       </c>
       <c r="K45" s="3">
         <v>1200</v>
       </c>
       <c r="L45" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N45" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>76700</v>
+      </c>
+      <c r="F46" s="3">
         <v>78900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>82000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>85200</v>
       </c>
-      <c r="G46" s="3">
-        <v>89500</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>89800</v>
+      </c>
+      <c r="J46" s="3">
         <v>106900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>22200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>21700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>22500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>22200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>24100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,57 +2269,69 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F48" s="3">
         <v>7700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6200</v>
       </c>
       <c r="N48" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="3">
-        <v>200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>200</v>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2119,10 +2340,10 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,19 +2445,25 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2233,7 +2472,7 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -2245,13 +2484,19 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>84700</v>
+      </c>
+      <c r="F54" s="3">
         <v>86900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>88900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>91700</v>
       </c>
-      <c r="G54" s="3">
-        <v>95600</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>95900</v>
+      </c>
+      <c r="J54" s="3">
         <v>113100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>30700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>30700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,69 +2617,77 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F57" s="3">
         <v>1500</v>
       </c>
       <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2434,95 +2701,113 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J59" s="3">
         <v>19300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J60" s="3">
         <v>21700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2531,63 +2816,75 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J66" s="3">
         <v>21800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>8200</v>
       </c>
       <c r="M66" s="3">
         <v>9000</v>
       </c>
       <c r="N66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F72" s="3">
         <v>21000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>26500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>30800</v>
       </c>
-      <c r="G72" s="3">
-        <v>34900</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>34200</v>
+      </c>
+      <c r="J72" s="3">
         <v>39500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-27700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-26400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>71300</v>
+      </c>
+      <c r="F76" s="3">
         <v>76700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>80600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>84000</v>
       </c>
-      <c r="G76" s="3">
-        <v>87900</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>87200</v>
+      </c>
+      <c r="J76" s="3">
         <v>91300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>21600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>22000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>22500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>23600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J81" s="3">
         <v>69200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,22 +3637,22 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3264,13 +3661,19 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
-      </c>
       <c r="H91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>60900</v>
       </c>
-      <c r="F94" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-6200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>35800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,60 +4333,66 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>50900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>15900</v>
       </c>
-      <c r="G102" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="J102" s="3">
         <v>32100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,148 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7600</v>
       </c>
-      <c r="G8" s="3">
-        <v>12200</v>
-      </c>
       <c r="H8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3700</v>
       </c>
       <c r="K8" s="3">
         <v>3700</v>
       </c>
       <c r="L8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
-        <v>4200</v>
-      </c>
       <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1200</v>
       </c>
       <c r="K9" s="3">
         <v>1200</v>
@@ -808,63 +815,69 @@
         <v>1200</v>
       </c>
       <c r="M9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
-        <v>8000</v>
-      </c>
       <c r="H10" s="3">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="I10" s="3">
         <v>3500</v>
       </c>
       <c r="J10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K10" s="3">
         <v>2500</v>
       </c>
       <c r="L10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,43 +904,46 @@
         <v>1000</v>
       </c>
       <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
-        <v>1700</v>
-      </c>
       <c r="H12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
       </c>
       <c r="J12" s="3">
+        <v>700</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,19 +986,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -989,11 +1009,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1001,11 +1021,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>1500</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,18 +1056,18 @@
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1052,13 +1075,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12300</v>
       </c>
-      <c r="G17" s="3">
-        <v>22400</v>
-      </c>
       <c r="H17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I17" s="3">
         <v>11400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>600</v>
-      </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-9300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-5400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2800</v>
       </c>
       <c r="K21" s="3">
         <v>-2800</v>
       </c>
       <c r="L21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1287,16 +1327,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,79 +1350,85 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,16 +1632,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1595,31 +1656,34 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>69600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>4800</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,60 +2053,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E41" s="3">
         <v>51400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2029,16 +2119,16 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>40900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>61700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>55500</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
@@ -2055,122 +2145,131 @@
       <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E43" s="3">
         <v>12500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E44" s="3">
         <v>5900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1200</v>
       </c>
       <c r="L45" s="3">
         <v>1200</v>
@@ -2179,60 +2278,66 @@
         <v>1200</v>
       </c>
       <c r="N45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E46" s="3">
         <v>74200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>85200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>89800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>106900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E48" s="3">
         <v>7500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5800</v>
       </c>
       <c r="J48" s="3">
         <v>5800</v>
       </c>
       <c r="K48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="L48" s="3">
         <v>6300</v>
       </c>
       <c r="M48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="N48" s="3">
         <v>6400</v>
       </c>
       <c r="O48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P48" s="3">
         <v>6200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2333,8 +2444,8 @@
       <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3">
-        <v>200</v>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2346,7 +2457,7 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>1900</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,16 +2568,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2469,13 +2589,13 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2490,13 +2610,16 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E54" s="3">
         <v>82100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>86900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>88900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,22 +2809,22 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E60" s="3">
         <v>10600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,10 +2950,10 @@
         <v>400</v>
       </c>
       <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2822,51 +2965,54 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>2500</v>
       </c>
       <c r="M61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N61" s="3">
         <v>2600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2700</v>
       </c>
       <c r="O61" s="3">
         <v>2700</v>
       </c>
       <c r="P61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -2875,7 +3021,7 @@
         <v>400</v>
       </c>
       <c r="N62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E72" s="3">
         <v>12600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>26500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>34200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E76" s="3">
         <v>70400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>87200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>91300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,19 +3842,19 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -3667,13 +3866,16 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4184,46 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4325,46 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>60900</v>
+        <v>-600</v>
       </c>
       <c r="H94" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I94" s="3">
         <v>20800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>35800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +4567,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4339,28 +4585,28 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -4368,34 +4614,37 @@
       <c r="P100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
-        <v>50900</v>
-      </c>
       <c r="H102" s="3">
+        <v>34900</v>
+      </c>
+      <c r="I102" s="3">
         <v>15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3700</v>
       </c>
       <c r="L8" s="3">
         <v>3700</v>
       </c>
       <c r="M8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,25 +798,25 @@
         <v>2200</v>
       </c>
       <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
-        <v>2600</v>
-      </c>
       <c r="H9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1200</v>
       </c>
       <c r="L9" s="3">
         <v>1200</v>
@@ -818,66 +825,72 @@
         <v>1200</v>
       </c>
       <c r="N9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6100</v>
       </c>
-      <c r="G10" s="3">
-        <v>5000</v>
-      </c>
       <c r="H10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I10" s="3">
         <v>4600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3500</v>
       </c>
       <c r="J10" s="3">
         <v>3500</v>
       </c>
       <c r="K10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L10" s="3">
         <v>2500</v>
       </c>
       <c r="M10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,43 +921,46 @@
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
         <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
       </c>
       <c r="K12" s="3">
+        <v>700</v>
+      </c>
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,11 +1020,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1012,11 +1032,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1024,11 +1044,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>1500</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,18 +1082,18 @@
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1078,13 +1101,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E17" s="3">
         <v>10500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2800</v>
       </c>
       <c r="L21" s="3">
         <v>-2800</v>
       </c>
       <c r="M21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1330,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1353,85 +1393,91 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4100</v>
       </c>
       <c r="H23" s="3">
         <v>-4200</v>
       </c>
       <c r="I23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,8 +1707,8 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1659,31 +1720,34 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>69600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>4800</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E41" s="3">
         <v>46200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>58800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2112,8 +2202,8 @@
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2122,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>40900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>61700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>55500</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>10</v>
@@ -2148,131 +2238,140 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E43" s="3">
         <v>14400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E44" s="3">
         <v>5300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1200</v>
       </c>
       <c r="M45" s="3">
         <v>1200</v>
@@ -2281,63 +2380,69 @@
         <v>1200</v>
       </c>
       <c r="O45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E46" s="3">
         <v>69800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>74200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>76700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>85200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>89800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>106900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5800</v>
       </c>
       <c r="K48" s="3">
         <v>5800</v>
       </c>
       <c r="L48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="M48" s="3">
         <v>6300</v>
       </c>
       <c r="N48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="O48" s="3">
         <v>6400</v>
       </c>
       <c r="P48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2447,8 +2558,8 @@
       <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="3">
-        <v>200</v>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2460,7 +2571,7 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>1900</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,19 +2688,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2592,13 +2712,13 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -2613,13 +2733,16 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E54" s="3">
         <v>77800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>86900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>88900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,22 +2946,22 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -2844,55 +2978,61 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,51 +3040,54 @@
         <v>9600</v>
       </c>
       <c r="E60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F60" s="3">
         <v>10600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>400</v>
@@ -2953,10 +3096,10 @@
         <v>400</v>
       </c>
       <c r="G61" s="3">
+        <v>400</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -2968,54 +3111,57 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>2500</v>
       </c>
       <c r="N61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O61" s="3">
         <v>2600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2700</v>
       </c>
       <c r="P61" s="3">
         <v>2700</v>
       </c>
       <c r="Q61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -3024,7 +3170,7 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>11000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E72" s="3">
         <v>7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>26500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>34200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E76" s="3">
         <v>66800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>76700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>84000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3845,19 +4044,19 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3869,13 +4068,16 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>40500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>20800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>35800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,17 +4813,20 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4591,25 +4837,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
@@ -4617,20 +4863,23 @@
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -4640,14 +4889,14 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3400</v>
       </c>
       <c r="O8" s="3">
         <v>3700</v>
       </c>
       <c r="P8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1200</v>
       </c>
       <c r="N9" s="3">
         <v>1200</v>
       </c>
       <c r="O9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
       </c>
       <c r="G12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
+        <v>300</v>
+      </c>
+      <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,44 +1062,50 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>700</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>700</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>1500</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>1500</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,32 +1130,38 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F17" s="3">
         <v>11300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,99 +1322,111 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1373,20 +1452,20 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1396,94 +1475,106 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2900</v>
       </c>
       <c r="N23" s="3">
         <v>-2800</v>
       </c>
       <c r="O23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,25 +1811,31 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+      <c r="E29" s="3">
+        <v>3700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1723,31 +1844,37 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>69600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>7200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>1900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>2300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>1700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>4800</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,99 +1994,111 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>69200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>69200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,69 +2312,77 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F41" s="3">
         <v>43500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>46200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>51400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>58800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>62300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>67400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>32400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>40700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2215,19 +2394,19 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>40900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>61700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>55500</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>10</v>
@@ -2241,208 +2420,238 @@
       <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F43" s="3">
         <v>14600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>14400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>12500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>9200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="P43" s="3">
-        <v>4100</v>
       </c>
       <c r="Q43" s="3">
         <v>4900</v>
       </c>
       <c r="R43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F44" s="3">
         <v>5400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>7200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>6000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>6500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>7300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>7600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1200</v>
       </c>
       <c r="O45" s="3">
         <v>1200</v>
       </c>
       <c r="P45" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R45" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F46" s="3">
         <v>67700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>69800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>74200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>76700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>78900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>82000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>85200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>89800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>106900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>22200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>21700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>22500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>22200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>24100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2500,49 +2715,55 @@
         <v>7200</v>
       </c>
       <c r="E48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>6200</v>
       </c>
       <c r="R48" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2561,11 +2782,11 @@
       <c r="H49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="3">
-        <v>200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>200</v>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2574,10 +2795,10 @@
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>1900</v>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,31 +2924,37 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -2724,7 +2963,7 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -2736,13 +2975,19 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>74100</v>
+      </c>
+      <c r="F54" s="3">
         <v>75400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>77800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>82100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>84700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>86900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>88900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>91700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>95900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>113100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>30700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>30100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>30700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>32600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,66 +3140,74 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>2500</v>
       </c>
       <c r="G57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I57" s="3">
         <v>2400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1600</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
       </c>
       <c r="K57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -2949,25 +3216,25 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -2981,131 +3248,149 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F60" s="3">
         <v>9600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>21700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>400</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
       </c>
       <c r="H61" s="3">
+        <v>400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>400</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3114,25 +3399,31 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3143,46 +3434,52 @@
         <v>900</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>900</v>
+      </c>
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>9000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>8200</v>
       </c>
       <c r="Q66" s="3">
         <v>9000</v>
       </c>
       <c r="R66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="T66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F72" s="3">
         <v>4100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>21000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>26500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>30800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>34200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>39500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-29700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-29400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-28500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-26400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>63700</v>
+      </c>
+      <c r="F76" s="3">
         <v>64200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>66800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>70400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>71300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>76700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>80600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>84000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>87200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>91300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>21600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>22000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>22500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>23600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>69200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4047,22 +4444,22 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -4071,13 +4468,19 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>400</v>
+      </c>
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-18000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>100</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>40500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>20800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>35800</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
       <c r="P94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,22 +5301,28 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4840,34 +5331,40 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,35 +5372,35 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>34900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-24100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>32100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,187 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E8" s="3">
         <v>8600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3700</v>
       </c>
       <c r="O8" s="3">
         <v>3700</v>
       </c>
       <c r="P8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2200</v>
       </c>
       <c r="G9" s="3">
         <v>2200</v>
       </c>
       <c r="H9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1200</v>
       </c>
       <c r="O9" s="3">
         <v>1200</v>
@@ -847,75 +854,81 @@
         <v>1200</v>
       </c>
       <c r="Q9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="3">
         <v>5800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3500</v>
       </c>
       <c r="M10" s="3">
         <v>3500</v>
       </c>
       <c r="N10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O10" s="3">
         <v>2500</v>
       </c>
       <c r="P10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,10 +959,10 @@
         <v>1100</v>
       </c>
       <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1000</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -957,43 +971,46 @@
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>700</v>
       </c>
       <c r="M12" s="3">
         <v>700</v>
       </c>
       <c r="N12" s="3">
+        <v>700</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,11 +1088,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1080,11 +1100,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1092,11 +1112,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>1500</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,18 +1159,18 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1155,13 +1178,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E17" s="3">
         <v>13400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2800</v>
       </c>
       <c r="O21" s="3">
         <v>-2800</v>
       </c>
       <c r="P21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1458,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-4200</v>
       </c>
       <c r="K23" s="3">
         <v>-4200</v>
       </c>
       <c r="L23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,38 +1592,38 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,19 +1875,22 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
         <v>3700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1837,8 +1898,8 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1850,31 +1911,34 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>69600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>2300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>4800</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>69200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>69200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E41" s="3">
         <v>39500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2400,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>40900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>55500</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
@@ -2426,158 +2516,167 @@
       <c r="T42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1200</v>
       </c>
       <c r="P45" s="3">
         <v>1200</v>
@@ -2586,72 +2685,78 @@
         <v>1200</v>
       </c>
       <c r="R45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E46" s="3">
         <v>63000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>66100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>69800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>74200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>76700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>82000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>85200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>89800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>106900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2811,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
         <v>7200</v>
@@ -2721,75 +2829,78 @@
         <v>7200</v>
       </c>
       <c r="G48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5800</v>
       </c>
       <c r="N48" s="3">
         <v>5800</v>
       </c>
       <c r="O48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="P48" s="3">
         <v>6300</v>
       </c>
       <c r="Q48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="R48" s="3">
         <v>6400</v>
       </c>
       <c r="S48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T48" s="3">
         <v>6200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="3">
-        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -2801,7 +2912,7 @@
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>1900</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,28 +3047,31 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -2960,13 +3080,13 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -2981,13 +3101,16 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E54" s="3">
         <v>71100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>75400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>77800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>82100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>86900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>88900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3344,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -3222,22 +3356,22 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3254,120 +3388,129 @@
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>9600</v>
       </c>
       <c r="G60" s="3">
         <v>9600</v>
       </c>
       <c r="H60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I60" s="3">
         <v>10600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,13 +3518,13 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
@@ -3390,10 +3533,10 @@
         <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>400</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3405,25 +3548,28 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>2500</v>
       </c>
       <c r="Q61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R61" s="3">
         <v>2600</v>
-      </c>
-      <c r="R61" s="3">
-        <v>2700</v>
       </c>
       <c r="S61" s="3">
         <v>2700</v>
       </c>
       <c r="T61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,37 +3577,37 @@
         <v>1100</v>
       </c>
       <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
@@ -3470,7 +3616,7 @@
         <v>400</v>
       </c>
       <c r="R62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>700</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E66" s="3">
         <v>11100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E76" s="3">
         <v>60000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>64200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>66800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>76700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>87200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>91300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>69200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,19 +4649,19 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4474,13 +4673,16 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>40500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>20800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>35800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,26 +5550,29 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5337,25 +5583,25 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -5363,13 +5609,16 @@
       <c r="T100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -5378,14 +5627,14 @@
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5395,14 +5644,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,190 +665,197 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3700</v>
       </c>
       <c r="P8" s="3">
         <v>3700</v>
       </c>
       <c r="Q8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2200</v>
       </c>
       <c r="H9" s="3">
         <v>2200</v>
       </c>
       <c r="I9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1200</v>
       </c>
       <c r="P9" s="3">
         <v>1200</v>
@@ -857,78 +864,84 @@
         <v>1200</v>
       </c>
       <c r="R9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3500</v>
       </c>
       <c r="N10" s="3">
         <v>3500</v>
       </c>
       <c r="O10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P10" s="3">
         <v>2500</v>
       </c>
       <c r="Q10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,22 +963,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
       </c>
       <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
@@ -974,43 +988,46 @@
         <v>1000</v>
       </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>700</v>
       </c>
       <c r="N12" s="3">
         <v>700</v>
       </c>
       <c r="O12" s="3">
+        <v>700</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,11 +1111,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1103,11 +1123,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1115,11 +1135,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>1500</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,18 +1185,18 @@
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1181,13 +1204,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E17" s="3">
         <v>15300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2800</v>
       </c>
       <c r="P21" s="3">
         <v>-2800</v>
       </c>
       <c r="Q21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1501,16 +1541,16 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-4200</v>
       </c>
       <c r="L23" s="3">
         <v>-4200</v>
       </c>
       <c r="M23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,38 +1641,38 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,11 +1950,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>3700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1901,8 +1962,8 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1914,31 +1975,34 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>69600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>7200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>2300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>4800</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E41" s="3">
         <v>34700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2493,16 +2583,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>40900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>61700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>55500</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>10</v>
@@ -2519,167 +2609,176 @@
       <c r="U42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1200</v>
       </c>
       <c r="Q45" s="3">
         <v>1200</v>
@@ -2688,75 +2787,81 @@
         <v>1200</v>
       </c>
       <c r="S45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E46" s="3">
         <v>61600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>66100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>67700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>69800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>74200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>82000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>89800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>106900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,16 +2919,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7200</v>
       </c>
       <c r="F48" s="3">
         <v>7200</v>
@@ -2832,49 +2940,52 @@
         <v>7200</v>
       </c>
       <c r="H48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5800</v>
       </c>
       <c r="O48" s="3">
         <v>5800</v>
       </c>
       <c r="P48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="Q48" s="3">
         <v>6300</v>
       </c>
       <c r="R48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="S48" s="3">
         <v>6400</v>
       </c>
       <c r="T48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="U48" s="3">
         <v>6200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2899,11 +3010,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L49" s="3">
-        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -2915,7 +3026,7 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>1900</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,31 +3167,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -3083,13 +3203,13 @@
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3104,13 +3224,16 @@
         <v>200</v>
       </c>
       <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E54" s="3">
         <v>69600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>74100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>77800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>86900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>88900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3347,7 +3481,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3359,22 +3493,22 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3391,143 +3525,152 @@
       <c r="U58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>9600</v>
       </c>
       <c r="H60" s="3">
         <v>9600</v>
       </c>
       <c r="I60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J60" s="3">
         <v>10600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
@@ -3536,10 +3679,10 @@
         <v>400</v>
       </c>
       <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3551,66 +3694,69 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>2500</v>
       </c>
       <c r="R61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S61" s="3">
         <v>2600</v>
-      </c>
-      <c r="S61" s="3">
-        <v>2700</v>
       </c>
       <c r="T61" s="3">
         <v>2700</v>
       </c>
       <c r="U61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
@@ -3619,7 +3765,7 @@
         <v>400</v>
       </c>
       <c r="S62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>700</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E66" s="3">
         <v>12200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E76" s="3">
         <v>57400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>64200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>66800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>70400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>91300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4652,19 +4851,19 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4676,13 +4875,16 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>40500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>20800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>35800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,29 +5796,32 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5586,25 +5832,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
@@ -5630,14 +5879,14 @@
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5647,14 +5896,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>10</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3700</v>
       </c>
       <c r="Q8" s="3">
         <v>3700</v>
       </c>
       <c r="R8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2200</v>
       </c>
       <c r="I9" s="3">
         <v>2200</v>
       </c>
       <c r="J9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1200</v>
       </c>
       <c r="Q9" s="3">
         <v>1200</v>
@@ -867,81 +873,87 @@
         <v>1200</v>
       </c>
       <c r="S9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E10" s="3">
         <v>8000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3500</v>
       </c>
       <c r="O10" s="3">
         <v>3500</v>
       </c>
       <c r="P10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q10" s="3">
         <v>2500</v>
       </c>
       <c r="R10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S10" s="3">
         <v>2200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,25 +976,26 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1100</v>
       </c>
       <c r="F12" s="3">
         <v>1100</v>
       </c>
       <c r="G12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="3">
         <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
@@ -991,43 +1004,46 @@
         <v>1000</v>
       </c>
       <c r="K12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>700</v>
       </c>
       <c r="O12" s="3">
         <v>700</v>
       </c>
       <c r="P12" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,11 +1133,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1126,11 +1145,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1138,11 +1157,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>1500</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1188,18 +1210,18 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1207,13 +1229,16 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E17" s="3">
         <v>15800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,123 +1423,129 @@
         <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-2800</v>
       </c>
       <c r="Q21" s="3">
         <v>-2800</v>
       </c>
       <c r="R21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1544,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-4200</v>
       </c>
       <c r="M23" s="3">
         <v>-4200</v>
       </c>
       <c r="N23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1644,38 +1689,38 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1953,11 +2013,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
         <v>3700</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1965,8 +2025,8 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1978,31 +2038,34 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>69600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>7200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>2300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>4800</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,123 +2203,129 @@
         <v>200</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,61 +2583,64 @@
         <v>30900</v>
       </c>
       <c r="E41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F41" s="3">
         <v>34700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2586,16 +2675,16 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>40900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>55500</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>10</v>
@@ -2612,176 +2701,185 @@
       <c r="V42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E43" s="3">
         <v>20000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E44" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1200</v>
       </c>
       <c r="R45" s="3">
         <v>1200</v>
@@ -2790,78 +2888,84 @@
         <v>1200</v>
       </c>
       <c r="T45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E46" s="3">
         <v>59900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>61600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>66100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>67700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>69800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>74200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>82000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>89800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>106900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>6800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7200</v>
       </c>
       <c r="G48" s="3">
         <v>7200</v>
@@ -2943,49 +3050,52 @@
         <v>7200</v>
       </c>
       <c r="I48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5800</v>
       </c>
       <c r="P48" s="3">
         <v>5800</v>
       </c>
       <c r="Q48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="R48" s="3">
         <v>6300</v>
       </c>
       <c r="S48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="T48" s="3">
         <v>6400</v>
       </c>
       <c r="U48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="V48" s="3">
         <v>6200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3013,11 +3123,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="M49" s="3">
-        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -3029,7 +3139,7 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>1900</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,25 +3298,25 @@
         <v>1100</v>
       </c>
       <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3206,13 +3325,13 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -3227,13 +3346,16 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
+        <v>200</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E54" s="3">
         <v>67800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>71100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>74100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>77800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3484,7 +3617,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -3496,22 +3629,22 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -3528,132 +3661,141 @@
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>9600</v>
       </c>
       <c r="I60" s="3">
         <v>9600</v>
       </c>
       <c r="J60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K60" s="3">
         <v>10600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,19 +3803,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>400</v>
       </c>
       <c r="J61" s="3">
         <v>400</v>
@@ -3682,10 +3824,10 @@
         <v>400</v>
       </c>
       <c r="L61" s="3">
+        <v>400</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3697,69 +3839,72 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>2500</v>
       </c>
       <c r="S61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T61" s="3">
         <v>2600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>2700</v>
       </c>
       <c r="U61" s="3">
         <v>2700</v>
       </c>
       <c r="V61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1100</v>
       </c>
       <c r="F62" s="3">
         <v>1100</v>
       </c>
       <c r="G62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
@@ -3768,7 +3913,7 @@
         <v>400</v>
       </c>
       <c r="T62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="U62" s="3">
         <v>700</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E76" s="3">
         <v>54300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>64200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>66800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>70400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>91300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4854,19 +5052,19 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4878,13 +5076,16 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>40500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>20800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>35800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,23 +6053,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5835,25 +6080,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
@@ -5861,19 +6106,22 @@
       <c r="V100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
@@ -5882,14 +6130,14 @@
         <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -5899,14 +6147,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>10</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F8" s="3">
         <v>16800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3400</v>
       </c>
       <c r="T8" s="3">
         <v>3700</v>
       </c>
       <c r="U8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F9" s="3">
         <v>4700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1200</v>
       </c>
       <c r="S9" s="3">
         <v>1200</v>
       </c>
       <c r="T9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
         <v>1200</v>
       </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1000</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
       </c>
       <c r="L12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="3">
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>800</v>
-      </c>
-      <c r="S12" s="3">
-        <v>500</v>
-      </c>
-      <c r="T12" s="3">
-        <v>300</v>
       </c>
       <c r="U12" s="3">
         <v>500</v>
       </c>
       <c r="V12" s="3">
+        <v>300</v>
+      </c>
+      <c r="W12" s="3">
+        <v>500</v>
+      </c>
+      <c r="X12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,96 +1141,108 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>700</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>700</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>1500</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>1500</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1213,32 +1259,38 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
       <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F17" s="3">
         <v>18500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>12300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>11700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-7800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,22 +1480,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1438,114 +1506,126 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-7400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1586,20 +1666,20 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1609,73 +1689,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2900</v>
       </c>
       <c r="S23" s="3">
         <v>-2800</v>
       </c>
       <c r="T23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-7800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1692,41 +1784,41 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-2400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-7800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-7800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2016,23 +2138,23 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>3700</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="J29" s="3">
+        <v>3700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2041,31 +2163,37 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>69600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>7200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>1900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>2300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>1700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>4800</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,22 +2328,28 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2218,114 +2358,126 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>69200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>69200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F41" s="3">
         <v>30900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>34700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>39500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>41900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>43500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>46200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>51400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>58800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>62300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>67400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>32400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>16600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>40700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>9900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>10300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2678,19 +2858,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>40900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>61700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>55500</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>10</v>
@@ -2704,268 +2884,298 @@
       <c r="W42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F43" s="3">
         <v>21200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>20000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>18000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>16400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>17300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>14600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>5100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="U43" s="3">
-        <v>4100</v>
       </c>
       <c r="V43" s="3">
         <v>4900</v>
       </c>
       <c r="W43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F44" s="3">
         <v>6800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>6000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>7500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>6700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>6500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>7300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>7600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1200</v>
       </c>
       <c r="T45" s="3">
         <v>1200</v>
       </c>
       <c r="U45" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="V45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W45" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F46" s="3">
         <v>60700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>59900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>61600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>63000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>66100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>67700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>69800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>74200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>76700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>78900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>82000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>85200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>89800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>106900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>22200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>21700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>22500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>22200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>24100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3239,85 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7200</v>
       </c>
       <c r="I48" s="3">
         <v>7200</v>
       </c>
       <c r="J48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6400</v>
-      </c>
-      <c r="U48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>6200</v>
       </c>
       <c r="W48" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3126,14 +3348,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N49" s="3">
-        <v>200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -3142,10 +3364,10 @@
         <v>200</v>
       </c>
       <c r="R49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="S49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>1900</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,46 +3523,52 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -3337,7 +3577,7 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
@@ -3349,13 +3589,19 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F54" s="3">
         <v>68700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>67800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>69600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>71100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>74100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>75400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>77800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>82100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>84700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>86900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>88900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>91700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>95900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>113100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>30700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>30100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>31000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>30700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>32600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,72 +3805,78 @@
         <v>2600</v>
       </c>
       <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2200</v>
       </c>
       <c r="K57" s="3">
         <v>2500</v>
       </c>
       <c r="L57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N57" s="3">
         <v>2400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1600</v>
       </c>
       <c r="O57" s="3">
         <v>1500</v>
       </c>
       <c r="P57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3620,10 +3888,10 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -3632,25 +3900,25 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -3664,176 +3932,194 @@
       <c r="W58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F59" s="3">
         <v>10400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>19300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F60" s="3">
         <v>13200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>21700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>400</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
         <v>600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3842,42 +4128,48 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>900</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
@@ -3886,46 +4178,52 @@
         <v>900</v>
       </c>
       <c r="K62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>900</v>
+      </c>
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
       </c>
       <c r="U62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="V62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="W62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15000</v>
+        <v>13600</v>
       </c>
       <c r="E66" s="3">
         <v>13400</v>
       </c>
       <c r="F66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>21800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8600</v>
-      </c>
-      <c r="T66" s="3">
-        <v>9000</v>
-      </c>
-      <c r="U66" s="3">
-        <v>8200</v>
       </c>
       <c r="V66" s="3">
         <v>9000</v>
       </c>
       <c r="W66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="X66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Y66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>12600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>21000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>26500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>30800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>34200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>39500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-29700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-28500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-27700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-26400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>49600</v>
+      </c>
+      <c r="F76" s="3">
         <v>53700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>54300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>57400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>60000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>63700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>64200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>66800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>70400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>71300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>76700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>80600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>84000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>87200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>91300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>21600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>21500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>22000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>22500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>23600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>69200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,22 +5453,22 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5079,13 +5477,19 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-3900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-200</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>100</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
       </c>
       <c r="U91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-200</v>
       </c>
       <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-200</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>40500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>20800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>35800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
       </c>
       <c r="U94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-200</v>
       </c>
       <c r="W94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6530,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,28 +6545,28 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6083,34 +6575,40 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,50 +6616,50 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q101" s="3" t="s">
+      <c r="S101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-6200</v>
       </c>
       <c r="E102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>34900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>15900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>32100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-4200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>10300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3700</v>
       </c>
       <c r="T8" s="3">
         <v>3700</v>
       </c>
       <c r="U8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,49 +852,49 @@
         <v>3400</v>
       </c>
       <c r="E9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F9" s="3">
         <v>4300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2200</v>
       </c>
       <c r="L9" s="3">
         <v>2200</v>
       </c>
       <c r="M9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1200</v>
       </c>
       <c r="T9" s="3">
         <v>1200</v>
@@ -896,90 +903,96 @@
         <v>1200</v>
       </c>
       <c r="V9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E10" s="3">
         <v>6900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3500</v>
       </c>
       <c r="R10" s="3">
         <v>3500</v>
       </c>
       <c r="S10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="T10" s="3">
         <v>2500</v>
       </c>
       <c r="U10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V10" s="3">
         <v>2200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,25 +1028,25 @@
         <v>1100</v>
       </c>
       <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1100</v>
       </c>
       <c r="I12" s="3">
         <v>1100</v>
       </c>
       <c r="J12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K12" s="3">
         <v>900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
       </c>
       <c r="L12" s="3">
         <v>1000</v>
@@ -1041,43 +1055,46 @@
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>700</v>
       </c>
       <c r="R12" s="3">
         <v>700</v>
       </c>
       <c r="S12" s="3">
+        <v>700</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1173,8 +1193,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1182,11 +1202,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1194,11 +1214,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>700</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1206,11 +1226,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>1500</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,8 +1267,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1265,18 +1288,18 @@
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1284,13 +1307,16 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E17" s="3">
         <v>16300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
       </c>
       <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2800</v>
       </c>
       <c r="T21" s="3">
         <v>-2800</v>
       </c>
       <c r="U21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-4200</v>
       </c>
       <c r="P23" s="3">
         <v>-4200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1790,38 +1836,38 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2144,11 +2205,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>3700</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2156,8 +2217,8 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2169,31 +2230,34 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>69600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>7200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>4800</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
       </c>
       <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>69200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>69200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>20100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>30900</v>
       </c>
       <c r="G41" s="3">
         <v>30900</v>
       </c>
       <c r="H41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="I41" s="3">
         <v>34700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>40700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2864,16 +2954,16 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>40900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>61700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>55500</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>10</v>
@@ -2890,150 +2980,159 @@
       <c r="Y42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E43" s="3">
         <v>18000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E44" s="3">
         <v>9700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3041,52 +3140,52 @@
         <v>2800</v>
       </c>
       <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1200</v>
       </c>
       <c r="U45" s="3">
         <v>1200</v>
@@ -3095,87 +3194,93 @@
         <v>1200</v>
       </c>
       <c r="W45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E46" s="3">
         <v>50500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>61600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>69800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>74200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>82000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>89800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>106900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>22500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>22200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>24100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,19 +3362,19 @@
         <v>7700</v>
       </c>
       <c r="E48" s="3">
-        <v>6900</v>
+        <v>7700</v>
       </c>
       <c r="F48" s="3">
         <v>6900</v>
       </c>
       <c r="G48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H48" s="3">
         <v>6800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7200</v>
       </c>
       <c r="J48" s="3">
         <v>7200</v>
@@ -3275,49 +3383,52 @@
         <v>7200</v>
       </c>
       <c r="L48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M48" s="3">
         <v>7400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5800</v>
       </c>
       <c r="S48" s="3">
         <v>5800</v>
       </c>
       <c r="T48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="U48" s="3">
         <v>6300</v>
       </c>
       <c r="V48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="W48" s="3">
         <v>6400</v>
       </c>
       <c r="X48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Y48" s="3">
         <v>6200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3354,11 +3465,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="P49" s="3">
-        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -3370,7 +3481,7 @@
         <v>200</v>
       </c>
       <c r="T49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>1900</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3541,31 +3661,31 @@
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
       </c>
       <c r="H52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
@@ -3574,13 +3694,13 @@
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
@@ -3595,13 +3715,16 @@
         <v>200</v>
       </c>
       <c r="X52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E54" s="3">
         <v>59500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>68700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>71100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>74100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>88900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>32600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +3926,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="3">
         <v>2600</v>
@@ -3811,75 +3942,78 @@
         <v>2600</v>
       </c>
       <c r="G57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -3894,7 +4028,7 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -3906,22 +4040,22 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
@@ -3938,150 +4072,159 @@
       <c r="Y58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>11400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>9600</v>
       </c>
       <c r="L60" s="3">
         <v>9600</v>
       </c>
       <c r="M60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N60" s="3">
         <v>10600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,7 +4232,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4098,19 +4241,19 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
@@ -4119,10 +4262,10 @@
         <v>400</v>
       </c>
       <c r="O61" s="3">
+        <v>400</v>
+      </c>
+      <c r="P61" s="3">
         <v>600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -4134,78 +4277,81 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>2500</v>
       </c>
       <c r="V61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W61" s="3">
         <v>2600</v>
-      </c>
-      <c r="W61" s="3">
-        <v>2700</v>
       </c>
       <c r="X61" s="3">
         <v>2700</v>
       </c>
       <c r="Y61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1500</v>
       </c>
       <c r="F62" s="3">
         <v>1500</v>
       </c>
       <c r="G62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H62" s="3">
         <v>1400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
       </c>
       <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>400</v>
@@ -4214,7 +4360,7 @@
         <v>400</v>
       </c>
       <c r="W62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="X62" s="3">
         <v>700</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
         <v>13600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>63700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>70400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>80600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>84000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>91300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>69200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5459,19 +5658,19 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5483,13 +5682,16 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
       </c>
       <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>40500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>20800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>35800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,41 +6779,44 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6581,25 +6827,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
@@ -6607,13 +6853,16 @@
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -6622,13 +6871,13 @@
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
@@ -6637,14 +6886,14 @@
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -6654,14 +6903,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>10</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>32100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,359 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3400</v>
       </c>
       <c r="W8" s="3">
         <v>3700</v>
       </c>
       <c r="X8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z8" s="3">
         <v>2700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1200</v>
       </c>
       <c r="V9" s="3">
         <v>1200</v>
       </c>
       <c r="W9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>12100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>3500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,73 +1055,79 @@
         <v>1100</v>
       </c>
       <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
-        <v>1200</v>
-      </c>
       <c r="G12" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>1200</v>
       </c>
       <c r="I12" s="3">
+        <v>900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1000</v>
       </c>
       <c r="N12" s="3">
         <v>1000</v>
       </c>
       <c r="O12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P12" s="3">
         <v>1000</v>
       </c>
       <c r="Q12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>800</v>
-      </c>
-      <c r="V12" s="3">
-        <v>500</v>
-      </c>
-      <c r="W12" s="3">
-        <v>300</v>
       </c>
       <c r="X12" s="3">
         <v>500</v>
       </c>
       <c r="Y12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,53 +1235,59 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>700</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>700</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>1500</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>1500</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1270,11 +1315,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
@@ -1291,32 +1336,38 @@
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
       <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
         <v>100</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F17" s="3">
         <v>14900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>18400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>15800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>6100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>6900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>11700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-3200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,22 +1592,22 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1549,128 +1616,140 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-3000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1715,20 +1794,20 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -1738,90 +1817,102 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-2900</v>
       </c>
       <c r="V23" s="3">
         <v>-2800</v>
       </c>
       <c r="W23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-2300</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1839,41 +1930,41 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-2400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1886,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2208,23 +2329,23 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>3700</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>3700</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2233,31 +2354,37 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>69600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>7200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>1900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>2300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>1700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>4800</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,22 +2552,22 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2437,123 +2576,135 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>69200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>4300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>69200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>4300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +3006,90 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>26200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>34700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>39500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>41900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>46200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>51400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>58800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>62300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>67400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>32400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>16600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>40700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>7900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>8700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>9900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>9400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>10300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2957,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>40900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>61700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>55500</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>10</v>
@@ -2983,304 +3162,334 @@
       <c r="Z42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F43" s="3">
         <v>16700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>18000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>20100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>21200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>18000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>16400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>14600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>14400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>6200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>5100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>5600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>5100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="X43" s="3">
-        <v>4100</v>
       </c>
       <c r="Y43" s="3">
         <v>4900</v>
       </c>
       <c r="Z43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AB43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F44" s="3">
         <v>12000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>9700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>6800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>6000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>7200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>6400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>5600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>6000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>7500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>6700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>6500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>7300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>7600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1200</v>
       </c>
       <c r="W45" s="3">
         <v>1200</v>
       </c>
       <c r="X45" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Y45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Z45" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F46" s="3">
         <v>46300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>50500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>54800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>60700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>59900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>61600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>63000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>66100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>67700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>69800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>74200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>76700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>78900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>82000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>85200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>89800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>106900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>22200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>21700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>22500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>22200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>24100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,82 +3562,94 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F48" s="3">
         <v>7700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>7200</v>
       </c>
       <c r="L48" s="3">
         <v>7200</v>
       </c>
       <c r="M48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O48" s="3">
         <v>7400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6400</v>
-      </c>
-      <c r="X48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>6200</v>
       </c>
       <c r="Z48" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3468,14 +3689,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>200</v>
-      </c>
-      <c r="R49" s="3">
-        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -3484,10 +3705,10 @@
         <v>200</v>
       </c>
       <c r="U49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="V49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="W49" s="3">
         <v>1900</v>
@@ -3501,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,55 +3882,61 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
       </c>
       <c r="G52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
@@ -3706,7 +3945,7 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V52" s="3">
         <v>200</v>
@@ -3718,13 +3957,19 @@
         <v>200</v>
       </c>
       <c r="Y52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F54" s="3">
         <v>55300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>59500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>63000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>68700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>67800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>69600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>71100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>74100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>75400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>77800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>82100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>84700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>86900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>88900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>91700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>95900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>113100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>30700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>30100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>31000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>30700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>32600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,99 +4186,107 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2600</v>
       </c>
       <c r="G57" s="3">
         <v>2600</v>
       </c>
       <c r="H57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2200</v>
       </c>
       <c r="N57" s="3">
         <v>2500</v>
       </c>
       <c r="O57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1600</v>
       </c>
       <c r="R57" s="3">
         <v>1500</v>
       </c>
       <c r="S57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -4031,10 +4298,10 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
@@ -4043,25 +4310,25 @@
         <v>400</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
@@ -4075,156 +4342,174 @@
       <c r="Z58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>9100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>19300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>12300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>21700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4235,43 +4520,43 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>400</v>
       </c>
       <c r="O61" s="3">
         <v>400</v>
       </c>
       <c r="P61" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>400</v>
+      </c>
+      <c r="R61" s="3">
         <v>600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -4280,51 +4565,57 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
         <v>2500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>1100</v>
@@ -4333,46 +4624,52 @@
         <v>900</v>
       </c>
       <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>900</v>
+      </c>
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W62" s="3">
         <v>400</v>
       </c>
       <c r="X62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Y62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Z62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F66" s="3">
         <v>13300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>13400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>15000</v>
       </c>
       <c r="H66" s="3">
         <v>13400</v>
       </c>
       <c r="I66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>21800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8600</v>
-      </c>
-      <c r="W66" s="3">
-        <v>9000</v>
-      </c>
-      <c r="X66" s="3">
-        <v>8200</v>
       </c>
       <c r="Y66" s="3">
         <v>9000</v>
       </c>
       <c r="Z66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="AB66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-23900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>21000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>26500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>30800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>34200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>39500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-29700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-29400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-28500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-27700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F76" s="3">
         <v>42000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>45900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>49600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>53700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>54300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>57400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>60000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>63700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>64200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>66800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>70400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>71300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>76700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>80600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>84000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>87200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>91300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>21600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>21500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>22000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>22500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>23600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>69200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>4300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5661,22 +6058,22 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -5685,13 +6082,19 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-18000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6601,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>100</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
       </c>
       <c r="X91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-200</v>
       </c>
       <c r="Z91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>40500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>20800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>35800</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>-200</v>
       </c>
       <c r="X94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-200</v>
       </c>
       <c r="Z94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,13 +7267,19 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>8100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6800,28 +7291,28 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6830,94 +7321,100 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="V101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -6930,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>34900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>15900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-24100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>32100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,265 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E8" s="3">
         <v>12100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5800</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3700</v>
       </c>
       <c r="W8" s="3">
         <v>3700</v>
       </c>
       <c r="X8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3400</v>
       </c>
       <c r="G9" s="3">
         <v>3400</v>
       </c>
       <c r="H9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I9" s="3">
         <v>4300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2200</v>
       </c>
       <c r="O9" s="3">
         <v>2200</v>
       </c>
       <c r="P9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1200</v>
       </c>
       <c r="W9" s="3">
         <v>1200</v>
@@ -925,99 +932,105 @@
         <v>1200</v>
       </c>
       <c r="Y9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E10" s="3">
         <v>7500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>3500</v>
       </c>
       <c r="U10" s="3">
         <v>3500</v>
       </c>
       <c r="V10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="W10" s="3">
         <v>2500</v>
       </c>
       <c r="X10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,43 +1059,44 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1100</v>
       </c>
       <c r="G12" s="3">
         <v>1100</v>
       </c>
       <c r="H12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1100</v>
       </c>
       <c r="L12" s="3">
         <v>1100</v>
       </c>
       <c r="M12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N12" s="3">
         <v>900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1000</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
@@ -1091,43 +1105,46 @@
         <v>1000</v>
       </c>
       <c r="Q12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>900</v>
-      </c>
-      <c r="T12" s="3">
-        <v>700</v>
       </c>
       <c r="U12" s="3">
         <v>700</v>
       </c>
       <c r="V12" s="3">
+        <v>700</v>
+      </c>
+      <c r="W12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1261,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1250,11 +1270,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1262,11 +1282,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>700</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1274,11 +1294,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1344,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
@@ -1342,18 +1365,18 @@
       <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
       <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
@@ -1361,13 +1384,16 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
         <v>100</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E17" s="3">
         <v>17800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,177 +1616,184 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
       </c>
       <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-2800</v>
       </c>
       <c r="W21" s="3">
         <v>-2800</v>
       </c>
       <c r="X21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-7400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1800,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1823,99 +1863,105 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-4200</v>
       </c>
       <c r="S23" s="3">
         <v>-4200</v>
       </c>
       <c r="T23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1936,38 +1982,38 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2400</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2335,11 +2396,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>3700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2347,8 +2408,8 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2360,31 +2421,34 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>69600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>7200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>2300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>4800</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
       </c>
       <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>69200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>69200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E41" s="3">
         <v>16300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>30900</v>
       </c>
       <c r="J41" s="3">
         <v>30900</v>
       </c>
       <c r="K41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="L41" s="3">
         <v>34700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>62300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>67400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>40700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3142,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>40900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>61700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>55500</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>10</v>
@@ -3168,230 +3258,239 @@
       <c r="AB42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E43" s="3">
         <v>18100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E44" s="3">
         <v>10900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2800</v>
       </c>
       <c r="G45" s="3">
         <v>2800</v>
       </c>
       <c r="H45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1200</v>
       </c>
       <c r="X45" s="3">
         <v>1200</v>
@@ -3400,96 +3499,102 @@
         <v>1200</v>
       </c>
       <c r="Z45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E46" s="3">
         <v>52700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>66100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>69800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>74200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>76700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>82000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>85200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>89800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>106900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>22200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>22500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>22200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>24100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,37 +3673,40 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7700</v>
       </c>
       <c r="G48" s="3">
         <v>7700</v>
       </c>
       <c r="H48" s="3">
-        <v>6900</v>
+        <v>7700</v>
       </c>
       <c r="I48" s="3">
         <v>6900</v>
       </c>
       <c r="J48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>7200</v>
       </c>
       <c r="M48" s="3">
         <v>7200</v>
@@ -3607,49 +3715,52 @@
         <v>7200</v>
       </c>
       <c r="O48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P48" s="3">
         <v>7400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5800</v>
       </c>
       <c r="V48" s="3">
         <v>5800</v>
       </c>
       <c r="W48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="X48" s="3">
         <v>6300</v>
       </c>
       <c r="Y48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="Z48" s="3">
         <v>6400</v>
       </c>
       <c r="AA48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="AB48" s="3">
         <v>6200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3695,11 +3806,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="S49" s="3">
-        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -3711,7 +3822,7 @@
         <v>200</v>
       </c>
       <c r="W49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>1900</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,19 +4005,22 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
@@ -3909,31 +4029,31 @@
         <v>1300</v>
       </c>
       <c r="I52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
@@ -3942,13 +4062,13 @@
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400</v>
-      </c>
-      <c r="V52" s="3">
-        <v>200</v>
       </c>
       <c r="W52" s="3">
         <v>200</v>
@@ -3963,13 +4083,16 @@
         <v>200</v>
       </c>
       <c r="AA52" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB52" s="3">
         <v>300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E54" s="3">
         <v>56800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>68700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>77800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>88900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>95900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>31000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>30700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>32600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,22 +4318,23 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2600</v>
       </c>
       <c r="H57" s="3">
         <v>2600</v>
@@ -4212,84 +4343,87 @@
         <v>2600</v>
       </c>
       <c r="J57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -4304,7 +4438,7 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
@@ -4316,22 +4450,22 @@
         <v>400</v>
       </c>
       <c r="R58" s="3">
+        <v>400</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
@@ -4348,168 +4482,177 @@
       <c r="AB58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
         <v>7800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>9100</v>
       </c>
       <c r="F59" s="3">
         <v>9100</v>
       </c>
       <c r="G59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>9600</v>
       </c>
       <c r="O60" s="3">
         <v>9600</v>
       </c>
       <c r="P60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>10600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,7 +4669,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4535,19 +4678,19 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>400</v>
       </c>
       <c r="P61" s="3">
         <v>400</v>
@@ -4556,10 +4699,10 @@
         <v>400</v>
       </c>
       <c r="R61" s="3">
+        <v>400</v>
+      </c>
+      <c r="S61" s="3">
         <v>600</v>
-      </c>
-      <c r="S61" s="3">
-        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -4571,87 +4714,90 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>2500</v>
       </c>
       <c r="Y61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2600</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>2700</v>
       </c>
       <c r="AA61" s="3">
         <v>2700</v>
       </c>
       <c r="AB61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AC61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1500</v>
       </c>
       <c r="I62" s="3">
         <v>1500</v>
       </c>
       <c r="J62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1100</v>
       </c>
       <c r="L62" s="3">
         <v>1100</v>
       </c>
       <c r="M62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
       <c r="W62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
@@ -4660,7 +4806,7 @@
         <v>400</v>
       </c>
       <c r="Z62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AA62" s="3">
         <v>700</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E66" s="3">
         <v>20700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>39500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-28500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-27700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-26400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E76" s="3">
         <v>36100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>80600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>84000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>91300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>23600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>69200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6064,19 +6263,19 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
       <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
@@ -6088,13 +6287,16 @@
         <v>200</v>
       </c>
       <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
         <v>400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-18000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>7100</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>40500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>20800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>35800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,50 +7516,53 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>8100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7327,25 +7573,25 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-100</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7362,13 +7611,13 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
@@ -7377,13 +7626,13 @@
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
@@ -7392,14 +7641,14 @@
         <v>-100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7409,14 +7658,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>10</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>34900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>32100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>APYX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,275 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5800</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3700</v>
       </c>
       <c r="X8" s="3">
         <v>3700</v>
       </c>
       <c r="Y8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3400</v>
       </c>
       <c r="H9" s="3">
         <v>3400</v>
       </c>
       <c r="I9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2200</v>
       </c>
       <c r="P9" s="3">
         <v>2200</v>
       </c>
       <c r="Q9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1200</v>
       </c>
       <c r="X9" s="3">
         <v>1200</v>
@@ -935,102 +942,108 @@
         <v>1200</v>
       </c>
       <c r="Z9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4600</v>
-      </c>
-      <c r="U10" s="3">
-        <v>3500</v>
       </c>
       <c r="V10" s="3">
         <v>3500</v>
       </c>
       <c r="W10" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="X10" s="3">
         <v>2500</v>
       </c>
       <c r="Y10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,46 +1073,47 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>1100</v>
       </c>
       <c r="I12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1100</v>
       </c>
       <c r="M12" s="3">
         <v>1100</v>
       </c>
       <c r="N12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O12" s="3">
         <v>900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1000</v>
       </c>
       <c r="P12" s="3">
         <v>1000</v>
@@ -1108,43 +1122,46 @@
         <v>1000</v>
       </c>
       <c r="R12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>900</v>
-      </c>
-      <c r="U12" s="3">
-        <v>700</v>
       </c>
       <c r="V12" s="3">
         <v>700</v>
       </c>
       <c r="W12" s="3">
+        <v>700</v>
+      </c>
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1284,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1273,11 +1293,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1285,11 +1305,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>700</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1297,11 +1317,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1500</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,8 +1370,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>10</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
@@ -1368,18 +1391,18 @@
       <c r="U15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
@@ -1387,13 +1410,16 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
         <v>100</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E17" s="3">
         <v>14800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,186 +1650,193 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
       </c>
       <c r="L20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5800</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-2800</v>
       </c>
       <c r="X21" s="3">
         <v>-2800</v>
       </c>
       <c r="Y21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-7400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1843,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1866,105 +1906,111 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-4200</v>
       </c>
       <c r="T23" s="3">
         <v>-4200</v>
       </c>
       <c r="U23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1985,38 +2031,38 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2400</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2399,11 +2460,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>3700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2411,8 +2472,8 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2424,31 +2485,34 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>69600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>7200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>2300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>4800</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
       </c>
       <c r="L32" s="3">
+        <v>200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>69200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>69200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E41" s="3">
         <v>18500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>30900</v>
       </c>
       <c r="K41" s="3">
         <v>30900</v>
       </c>
       <c r="L41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="M41" s="3">
         <v>34700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>62300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>67400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>32400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>40700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3235,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>40900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>61700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>55500</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>10</v>
@@ -3261,239 +3351,248 @@
       <c r="AC42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E43" s="3">
         <v>20100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E44" s="3">
         <v>11200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>7600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2800</v>
       </c>
       <c r="H45" s="3">
         <v>2800</v>
       </c>
       <c r="I45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
-      </c>
-      <c r="X45" s="3">
-        <v>1200</v>
       </c>
       <c r="Y45" s="3">
         <v>1200</v>
@@ -3502,99 +3601,105 @@
         <v>1200</v>
       </c>
       <c r="AA45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E46" s="3">
         <v>52900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>60700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>66100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>69800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>74200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>76700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>82000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>85200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>89800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>106900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>22200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>22500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>22200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>24100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,40 +3781,43 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E48" s="3">
         <v>7600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7700</v>
       </c>
       <c r="H48" s="3">
         <v>7700</v>
       </c>
       <c r="I48" s="3">
-        <v>6900</v>
+        <v>7700</v>
       </c>
       <c r="J48" s="3">
         <v>6900</v>
       </c>
       <c r="K48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L48" s="3">
         <v>6800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>7200</v>
       </c>
       <c r="N48" s="3">
         <v>7200</v>
@@ -3718,49 +3826,52 @@
         <v>7200</v>
       </c>
       <c r="P48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>5800</v>
       </c>
       <c r="W48" s="3">
         <v>5800</v>
       </c>
       <c r="X48" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="Y48" s="3">
         <v>6300</v>
       </c>
       <c r="Z48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="AA48" s="3">
         <v>6400</v>
       </c>
       <c r="AB48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="AC48" s="3">
         <v>6200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3809,11 +3920,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="T49" s="3">
-        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3825,7 +3936,7 @@
         <v>200</v>
       </c>
       <c r="X49" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="Y49" s="3">
         <v>1900</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4017,13 +4137,13 @@
         <v>1900</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
@@ -4032,31 +4152,31 @@
         <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
       </c>
       <c r="L52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
@@ -4065,13 +4185,13 @@
         <v>400</v>
       </c>
       <c r="U52" s="3">
+        <v>400</v>
+      </c>
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>400</v>
-      </c>
-      <c r="W52" s="3">
-        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>200</v>
@@ -4086,13 +4206,16 @@
         <v>200</v>
       </c>
       <c r="AB52" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC52" s="3">
         <v>300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E54" s="3">
         <v>62400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>68700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>88900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>95900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>31000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>30700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>32600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,25 +4449,26 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2600</v>
       </c>
       <c r="I57" s="3">
         <v>2600</v>
@@ -4346,87 +4477,90 @@
         <v>2600</v>
       </c>
       <c r="K57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8800</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -4441,7 +4575,7 @@
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
@@ -4453,22 +4587,22 @@
         <v>400</v>
       </c>
       <c r="S58" s="3">
+        <v>400</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
@@ -4485,179 +4619,188 @@
       <c r="AC58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9100</v>
       </c>
       <c r="G59" s="3">
         <v>9100</v>
       </c>
       <c r="H59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I59" s="3">
         <v>8700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
         <v>19000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>9600</v>
       </c>
       <c r="P60" s="3">
         <v>9600</v>
       </c>
       <c r="Q60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="R60" s="3">
         <v>10600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>9100</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4672,7 +4815,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4681,19 +4824,19 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>400</v>
       </c>
       <c r="Q61" s="3">
         <v>400</v>
@@ -4702,10 +4845,10 @@
         <v>400</v>
       </c>
       <c r="S61" s="3">
+        <v>400</v>
+      </c>
+      <c r="T61" s="3">
         <v>600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4717,90 +4860,93 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>2500</v>
       </c>
       <c r="Z61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA61" s="3">
         <v>2600</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>2700</v>
       </c>
       <c r="AB61" s="3">
         <v>2700</v>
       </c>
       <c r="AC61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1500</v>
       </c>
       <c r="J62" s="3">
         <v>1500</v>
       </c>
       <c r="K62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L62" s="3">
         <v>1400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1100</v>
       </c>
       <c r="M62" s="3">
         <v>1100</v>
       </c>
       <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
       <c r="X62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="3">
         <v>400</v>
@@ -4809,7 +4955,7 @@
         <v>400</v>
       </c>
       <c r="AA62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AB62" s="3">
         <v>700</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E66" s="3">
         <v>25800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>30800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>39500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-29700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-28500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-27700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-26400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E76" s="3">
         <v>36600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>76700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>80600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>84000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>87200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>91300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>22500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>23600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>69200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6266,19 +6465,19 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
       <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
@@ -6290,13 +6489,16 @@
         <v>200</v>
       </c>
       <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
         <v>400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-18000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6833,82 +7054,85 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>7100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>40500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>20800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>35800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,53 +7762,56 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7576,25 +7822,25 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>-2500</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-100</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>-100</v>
@@ -7602,25 +7848,28 @@
       <c r="AC100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -7629,13 +7878,13 @@
         <v>100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
@@ -7644,14 +7893,14 @@
         <v>-100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7661,14 +7910,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>10</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>32100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2900</v>
       </c>
     </row>
